--- a/CHAMADA.xlsx
+++ b/CHAMADA.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t xml:space="preserve">Adriana Oleiro Faria</t>
   </si>
   <si>
     <t xml:space="preserve">adrianaoleiro@yahoo.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Alvaro Rodrigues Chaves Neto</t>
@@ -214,7 +217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,17 +344,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -364,16 +367,19 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>163736</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,10 +387,13 @@
         <v>136667</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +401,10 @@
         <v>153801</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,10 +412,13 @@
         <v>156292</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,10 +426,13 @@
         <v>153791</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,10 +440,10 @@
         <v>176868</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,10 +451,10 @@
         <v>174127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,10 +462,13 @@
         <v>153792</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,10 +476,13 @@
         <v>138768</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,10 +490,10 @@
         <v>153795</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,10 +501,13 @@
         <v>153797</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,10 +515,13 @@
         <v>151182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,10 +529,13 @@
         <v>157230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,10 +543,10 @@
         <v>156289</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,10 +554,10 @@
         <v>117206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,10 +565,13 @@
         <v>147556</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,10 +579,10 @@
         <v>174131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,10 +590,10 @@
         <v>133423</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
